--- a/src/assets/ExcelSample/TinhHinhNhapKhau.xlsx
+++ b/src/assets/ExcelSample/TinhHinhNhapKhau.xlsx
@@ -145,7 +145,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -154,10 +154,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="dashed">
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
@@ -169,13 +169,86 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="dashed">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="dashed">
         <color auto="1"/>
+      </right>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
       <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="dashed">
@@ -184,14 +257,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="dashed">
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="dashed">
         <color auto="1"/>
@@ -202,7 +275,7 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="dashed">
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top style="dashed">
@@ -214,24 +287,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="dashed">
-        <color auto="1"/>
-      </left>
-      <right style="dashed">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top style="dashed">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
       <bottom style="dashed">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="dashed">
-        <color auto="1"/>
-      </left>
+      <left/>
+      <right/>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -239,51 +334,6 @@
         <color auto="1"/>
       </top>
       <bottom style="dashed">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="dashed">
-        <color auto="1"/>
-      </right>
-      <top style="dashed">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color auto="1"/>
-      </left>
-      <right style="dashed">
-        <color auto="1"/>
-      </right>
-      <top style="dashed">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="dashed">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -297,64 +347,64 @@
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -649,209 +699,207 @@
   <cols>
     <col min="1" max="1" width="7.6640625" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="37.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="17.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
+      <c r="A2" s="2">
         <v>55</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="11"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12">
+      <c r="A3" s="3">
         <v>56</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="16"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+      <c r="A4" s="2">
         <v>57</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="11"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
+      <c r="A5" s="2">
         <v>58</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="11"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
+      <c r="A6" s="2">
         <v>59</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="11"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
+      <c r="A7" s="2">
         <v>60</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="11"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
+      <c r="A8" s="2">
         <v>61</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="11"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
     </row>
     <row r="9" spans="1:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
+      <c r="A9" s="2">
         <v>62</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="11"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
+      <c r="A10" s="2">
         <v>63</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="11"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
+      <c r="A11" s="2">
         <v>64</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="11"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
     </row>
     <row r="12" spans="1:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
+      <c r="A12" s="2">
         <v>65</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="11"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
     </row>
     <row r="13" spans="1:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17">
+      <c r="A13" s="4">
         <v>66</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="21"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C3:H3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/src/assets/ExcelSample/TinhHinhNhapKhau.xlsx
+++ b/src/assets/ExcelSample/TinhHinhNhapKhau.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>ID</t>
   </si>
@@ -84,6 +84,15 @@
   </si>
   <si>
     <t>Máy móc thiết bị, DCPT (Triệu USD)</t>
+  </si>
+  <si>
+    <t>Triệu USD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nghìn tấn</t>
+  </si>
+  <si>
+    <t>ĐVT</t>
   </si>
 </sst>
 </file>
@@ -154,13 +163,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="dashed">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="dashed">
         <color auto="1"/>
       </top>
       <bottom style="dashed">
@@ -173,51 +182,6 @@
         <color auto="1"/>
       </left>
       <right style="dashed">
-        <color auto="1"/>
-      </right>
-      <top style="dashed">
-        <color auto="1"/>
-      </top>
-      <bottom style="dashed">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="dashed">
-        <color auto="1"/>
-      </top>
-      <bottom style="dashed">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="dashed">
-        <color auto="1"/>
-      </right>
-      <top style="dashed">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
         <color auto="1"/>
       </right>
       <top style="dashed">
@@ -257,6 +221,81 @@
       <diagonal/>
     </border>
     <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -264,9 +303,9 @@
         <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dashed">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -278,10 +317,10 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="dashed">
-        <color auto="1"/>
-      </top>
-      <bottom style="dashed">
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -293,7 +332,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="dashed">
+      <top style="hair">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -305,35 +344,13 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="dashed">
-        <color auto="1"/>
-      </top>
-      <bottom style="dashed">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="dashed">
-        <color auto="1"/>
-      </top>
-      <bottom style="dashed">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="dashed">
-        <color auto="1"/>
-      </top>
-      <bottom style="dashed">
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -344,67 +361,76 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -689,7 +715,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -699,207 +725,242 @@
   <cols>
     <col min="1" max="1" width="7.6640625" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="37.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="17.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="17.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>55</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-    </row>
-    <row r="3" spans="1:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+    </row>
+    <row r="3" spans="1:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>56</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="21"/>
-    </row>
-    <row r="4" spans="1:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="24"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" spans="1:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>57</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-    </row>
-    <row r="5" spans="1:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+    </row>
+    <row r="5" spans="1:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>58</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-    </row>
-    <row r="6" spans="1:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+    </row>
+    <row r="6" spans="1:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>59</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-    </row>
-    <row r="7" spans="1:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+    </row>
+    <row r="7" spans="1:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>60</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-    </row>
-    <row r="8" spans="1:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+    </row>
+    <row r="8" spans="1:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>61</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-    </row>
-    <row r="9" spans="1:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+    </row>
+    <row r="9" spans="1:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>62</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-    </row>
-    <row r="10" spans="1:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+    </row>
+    <row r="10" spans="1:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>63</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-    </row>
-    <row r="11" spans="1:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+    </row>
+    <row r="11" spans="1:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>64</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="1:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="18"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+    </row>
+    <row r="12" spans="1:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>65</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-    </row>
-    <row r="13" spans="1:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+    </row>
+    <row r="13" spans="1:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>66</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
+      <c r="C13" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C3:H3"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/src/assets/ExcelSample/TinhHinhNhapKhau.xlsx
+++ b/src/assets/ExcelSample/TinhHinhNhapKhau.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>ID</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>ĐVT</t>
+  </si>
+  <si>
+    <t>STT</t>
   </si>
 </sst>
 </file>
@@ -102,7 +105,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,57 +142,27 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="dashed">
-        <color auto="1"/>
-      </right>
-      <top style="dashed">
-        <color auto="1"/>
-      </top>
-      <bottom style="dashed">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="dashed">
-        <color auto="1"/>
-      </right>
-      <top style="dashed">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -207,231 +180,45 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="dashed">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -715,250 +502,288 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.6640625" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="37.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="17.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" customWidth="1"/>
+    <col min="3" max="3" width="37.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="17.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>55</v>
-      </c>
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="1:10" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>14</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-    </row>
-    <row r="3" spans="1:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>56</v>
-      </c>
-      <c r="B3" s="15" t="s">
+      <c r="D2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" s="5" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
+        <v>15</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="10"/>
-    </row>
-    <row r="4" spans="1:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>57</v>
-      </c>
-      <c r="B4" s="17" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+    </row>
+    <row r="4" spans="1:10" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>16</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="D4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-    </row>
-    <row r="5" spans="1:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>58</v>
-      </c>
-      <c r="B5" s="17" t="s">
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>17</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-    </row>
-    <row r="6" spans="1:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>59</v>
-      </c>
-      <c r="B6" s="17" t="s">
+      <c r="D5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>18</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-    </row>
-    <row r="7" spans="1:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>60</v>
-      </c>
-      <c r="B7" s="17" t="s">
+      <c r="D6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>19</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-    </row>
-    <row r="8" spans="1:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>61</v>
-      </c>
-      <c r="B8" s="17" t="s">
+      <c r="D7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>20</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-    </row>
-    <row r="9" spans="1:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>62</v>
-      </c>
-      <c r="B9" s="17" t="s">
+      <c r="D8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>21</v>
+      </c>
+      <c r="B9" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-    </row>
-    <row r="10" spans="1:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>63</v>
-      </c>
-      <c r="B10" s="17" t="s">
+      <c r="D9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>22</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-    </row>
-    <row r="11" spans="1:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>64</v>
-      </c>
-      <c r="B11" s="17" t="s">
+      <c r="D10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>23</v>
+      </c>
+      <c r="B11" s="7">
+        <v>1.7</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-    </row>
-    <row r="12" spans="1:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>65</v>
-      </c>
-      <c r="B12" s="17" t="s">
+      <c r="D11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>24</v>
+      </c>
+      <c r="B12" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-    </row>
-    <row r="13" spans="1:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>66</v>
-      </c>
-      <c r="B13" s="20" t="s">
+      <c r="D12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>25</v>
+      </c>
+      <c r="B13" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
+      <c r="D13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/assets/ExcelSample/TinhHinhNhapKhau.xlsx
+++ b/src/assets/ExcelSample/TinhHinhNhapKhau.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>ID</t>
   </si>
@@ -50,42 +50,9 @@
     <t>ƯTH so tháng trước</t>
   </si>
   <si>
-    <t>Gỗ và sản phẩm từ gỗ (Triệu USD)</t>
-  </si>
-  <si>
-    <t>Hàng hóa khác (Triệu USD)</t>
-  </si>
-  <si>
     <t>Mặt hàng nhập khẩu chủ yếu</t>
   </si>
   <si>
-    <t>Tổng Kim ngạch nhập khẩu (Triệu USD)</t>
-  </si>
-  <si>
-    <t>Hạt điều thô (Nghìn tấn)</t>
-  </si>
-  <si>
-    <t>Hạt điều thô (Triệu USD)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hóa chất (Triệu USD)</t>
-  </si>
-  <si>
-    <t>Chất dẻo nguyên liệu (Triệu USD)</t>
-  </si>
-  <si>
-    <t>Xơ, sợi dệt các loại (Triệu USD)</t>
-  </si>
-  <si>
-    <t>Vải các loại (Triệu USD)</t>
-  </si>
-  <si>
-    <t>Nguyên phụ liệu dệt, may, da, giày (Triệu USD)</t>
-  </si>
-  <si>
-    <t>Máy móc thiết bị, DCPT (Triệu USD)</t>
-  </si>
-  <si>
     <t>Triệu USD</t>
   </si>
   <si>
@@ -96,6 +63,36 @@
   </si>
   <si>
     <t>STT</t>
+  </si>
+  <si>
+    <t>Tổng Kim ngạch nhập khẩu</t>
+  </si>
+  <si>
+    <t>Hạt điều thô</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hóa chất</t>
+  </si>
+  <si>
+    <t>Chất dẻo nguyên liệu</t>
+  </si>
+  <si>
+    <t>Gỗ và sản phẩm từ gỗ</t>
+  </si>
+  <si>
+    <t>Xơ, sợi dệt các loại</t>
+  </si>
+  <si>
+    <t>Vải các loại</t>
+  </si>
+  <si>
+    <t>Nguyên phụ liệu dệt, may, da, giày</t>
+  </si>
+  <si>
+    <t>Máy móc thiết bị, DCPT</t>
+  </si>
+  <si>
+    <t>Hàng hóa khác</t>
   </si>
 </sst>
 </file>
@@ -105,7 +102,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +145,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -186,7 +191,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -220,6 +225,19 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma 2" xfId="2"/>
@@ -513,7 +531,7 @@
     <col min="1" max="1" width="7.6640625" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="7.6640625" customWidth="1"/>
     <col min="3" max="3" width="37.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="10" width="17.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -522,13 +540,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
@@ -549,33 +567,33 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
-        <v>14</v>
-      </c>
-      <c r="B2" s="7">
+    <row r="2" spans="1:10" s="17" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13">
+        <v>55</v>
+      </c>
+      <c r="B2" s="14">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
+      <c r="C2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" s="5" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="12"/>
@@ -587,16 +605,16 @@
     </row>
     <row r="4" spans="1:10" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="B4" s="7">
         <v>1.1000000000000001</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="9"/>
@@ -607,16 +625,16 @@
     </row>
     <row r="5" spans="1:10" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="B5" s="7">
         <v>1.1000000000000001</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="9"/>
@@ -627,16 +645,16 @@
     </row>
     <row r="6" spans="1:10" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="B6" s="7">
         <v>1.2</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="9"/>
@@ -647,16 +665,16 @@
     </row>
     <row r="7" spans="1:10" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="B7" s="7">
         <v>1.3</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="9"/>
@@ -667,16 +685,16 @@
     </row>
     <row r="8" spans="1:10" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="B8" s="7">
         <v>1.4</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="9"/>
@@ -687,16 +705,16 @@
     </row>
     <row r="9" spans="1:10" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="B9" s="7">
         <v>1.5</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="9"/>
@@ -707,16 +725,16 @@
     </row>
     <row r="10" spans="1:10" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="B10" s="7">
         <v>1.6</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="9"/>
@@ -727,16 +745,16 @@
     </row>
     <row r="11" spans="1:10" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="B11" s="7">
         <v>1.7</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="9"/>
@@ -747,16 +765,16 @@
     </row>
     <row r="12" spans="1:10" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="B12" s="7">
         <v>1.8</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="9"/>
@@ -767,16 +785,16 @@
     </row>
     <row r="13" spans="1:10" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="B13" s="7">
         <v>1.9</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="9"/>
